--- a/biology/Botanique/Aztekium/Aztekium.xlsx
+++ b/biology/Botanique/Aztekium/Aztekium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aztekium ritteri est une petite plante (autour de 20 mm de large), avec 9 à 11 côtes, qui ont généralement des rides transversales. Sa couleur varie de vert pâle à vert-grisâtre. Le centre du cactus contient un lot de laine blanche. Les fleurs sont petites (moins de 10 mm de large), avec des pétales blancs et des sépales roses. Les plantes portent comme fruits de petites baies rose.
 Aztekium hintonii est plus large, à 10 cm de diamètre, avec 10 à 18 côtes, des fleurs magenta de 3 cm. Il ne pousse que sur du gypse.
@@ -550,7 +564,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces poussent très lentement, prenant près de deux ans pour atteindre 3 mm de diamètre. Ils sont généralement multipliés par semis.
 </t>
@@ -581,7 +597,9 @@
           <t>Principes actifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">N-methyltyramine
 hordenine
